--- a/data/departman_url.xlsx
+++ b/data/departman_url.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C305"/>
+  <dimension ref="A1:C414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5614,6 +5614,1855 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>İç Hastalıkları</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Tıbbi Mikrobiyoloji</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Tıbbi Biyokimya</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Biyoistatistik</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Anatomi</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Nükleer Tıp</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Genel Cerrahi</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Göğüs Hastalıkları</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Kardiyoloji</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Tıbbi Patoloji</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Ruh Sağlığı ve Hastalıkları</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Kadın Hastalıkları ve Doğum</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Tıp Tarihi ve Etik</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Çocuk Cerrahisi</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Kulak, Burun, Boğaz</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Çocuk Sağlığı ve Hastalıkları</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Anesteziyoloji ve Reanimasyon</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Nöroloji</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Tıbbi Farmakoloji</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Üroloji</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Ortopedi ve Travmatoloji</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984, https://dishekimligi.istun.edu.tr/tr/akademik-kadro-988, https://muhendislik.istun.edu.tr/tr/akademik-kadro-1603, https://sbf.istun.edu.tr/tr/akademik-kadro-1208, https://iisbf.istun.edu.tr/tr/akademik-kadro-1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Acil Tıp</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Fizyoloji</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Aile Hekimliği</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Kalp ve Damar Cerrahi</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Tıbbi Biyoloji</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Histoloji ve Embriyoloji</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Radyoloji</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Adli Tıp</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Fiziksel Tıp ve Rehabilitasyon</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Tıp Eğitimi</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Tıbbi Genetik</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>https://tip.istun.edu.tr/tr/akademik-kadro-984</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Endodonti</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>https://dishekimligi.istun.edu.tr/tr/akademik-kadro-988</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Ortodonti</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>https://dishekimligi.istun.edu.tr/tr/akademik-kadro-988</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Pedodonti</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>https://dishekimligi.istun.edu.tr/tr/akademik-kadro-988</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Protetik Diş Tedavisi</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>https://dishekimligi.istun.edu.tr/tr/akademik-kadro-988</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Ağız, Diş ve Çene Radyolojisi</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>https://dishekimligi.istun.edu.tr/tr/akademik-kadro-988</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Ağız, Diş ve Çene Cerrahisi</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>https://dishekimligi.istun.edu.tr/tr/akademik-kadro-988</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Periodontoloji</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>https://dishekimligi.istun.edu.tr/tr/akademik-kadro-988</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Restoratif Diş Tedavisi</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>https://dishekimligi.istun.edu.tr/tr/akademik-kadro-988</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Dekan  Analitik Kimya</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Analitik Kimya</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Biyokimya</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Farmasötik Mikrobiyoloji</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Farmasötik Kimya</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Farmakoloji</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Farmasötik Toksikoloji</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Eczacılık Meslek Bilimleri ü ve Farmakognozi</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Farmakognozi</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Dekan Farmasötik Teknoloji</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Farmasötik Teknoloji</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Dekan  Farmasötik Teknoloji</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>https://eczacilik.istun.edu.tr/tr/akademik-kadro-990</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Makine Mühendisliği</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>https://muhendislik.istun.edu.tr/tr/akademik-kadro-1603</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Kimya Mühendisliği</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>https://muhendislik.istun.edu.tr/tr/akademik-kadro-1603</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Bilgisayar Mühendisliği</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>https://muhendislik.istun.edu.tr/tr/akademik-kadro-1603</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Endüstri Mühendisliği</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>https://muhendislik.istun.edu.tr/tr/akademik-kadro-1603</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Endüstriyel Tasarım Mühendisliği</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>https://muhendislik.istun.edu.tr/tr/akademik-kadro-1603</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Mekatronik Mühendisliği</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>https://muhendislik.istun.edu.tr/tr/akademik-kadro-1603</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Mimarlık</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>https://muhendislik.istun.edu.tr/tr/akademik-kadro-1603</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Moleküler Biyoloji ve Genetik</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>https://muhendislik.istun.edu.tr/tr/akademik-kadro-1603</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Yazılım Mühendisliği</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>https://muhendislik.istun.edu.tr/tr/akademik-kadro-1603</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Fizyoterapi ve Rehabilitasyon</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>https://sbf.istun.edu.tr/tr/akademik-kadro-1208</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Beslenme ve Diyetetik</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>https://sbf.istun.edu.tr/tr/akademik-kadro-1208</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Hemşirelik</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>https://sbf.istun.edu.tr/tr/akademik-kadro-1208</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Ergoterapi</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>https://sbf.istun.edu.tr/tr/akademik-kadro-1208</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Odyoloji</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>https://sbf.istun.edu.tr/tr/akademik-kadro-1208</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Dekan  Psikoloji</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>https://iisbf.istun.edu.tr/tr/akademik-kadro-1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>İngiliz Dili ve Edebiyatı</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>https://iisbf.istun.edu.tr/tr/akademik-kadro-1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Türkçe İşletme</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>https://iisbf.istun.edu.tr/tr/akademik-kadro-1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>İngilizce İşletme</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>https://iisbf.istun.edu.tr/tr/akademik-kadro-1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>İşletme</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>https://iisbf.istun.edu.tr/tr/akademik-kadro-1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Psikoloji</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>https://iisbf.istun.edu.tr/tr/akademik-kadro-1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>İstanbul Sağlık ve Teknoloji Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>İngilizce Mütercim ve Tercümanlık</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>https://iisbf.istun.edu.tr/tr/ingilizce-mutercim-tercumanlik-akademik-kadrosu-1611</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Rehberli̇k Ve Psi̇koloji̇k Danişmanlik</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/egitim-fakultesi/bolumler/egitim-bilimleri-bolumu/rehberlik-ve-psikolojik-danismanlik-anabilim-dali/rehberlik-ve-psikolojik-danismanlik</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>İlköğreti̇m Matemati̇k Öğretmenli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/egitim-fakultesi/bolumler/matematik-ve-fen-bilimleri-egitim-bolumu/ilkogretim-matematik-egitimi-anabilim-dali/ilkogretim-matematik-ogretmenligi</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Özel Eği̇ti̇m Öğretmenli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/egitim-fakultesi/bolumler/ozel-egitim-bolumu/ozel-egitim-anabilim-dali/ozel-egitim-ogretmenligi</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Okul Öncesi̇ Öğretmenli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/egitim-fakultesi/bolumler/temel-egitim-bolumu/okul-oncesi-egitimi-anabilim-dali/okul-oncesi-ogretmenligi</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Sinif Öğretmenli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/egitim-fakultesi/bolumler/temel-egitim-bolumu/sinif-egitimi-anabilim-dali/sinif-ogretmenligi</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Türkçe Öğretmenli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/egitim-fakultesi/bolumler/turkce-ve-sosyal-bilimler-egitimi-bolumu/turkce-egitimi-anabilim-dali/turkce-ogretmenligi</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Arapça Öğretmenli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/egitim-fakultesi/bolumler/yabanci-diller-egitimi-bolumu/arap-dili-egitimi-anabilim-dali/arapca-%C3%B6gretmenligi-yuzde-30-arapca</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>İngi̇li̇zce Öğretmenli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/egitim-fakultesi/bolumler/yabanci-diller-egitimi-bolumu/ingiliz-dili-egitimi-anabilim-dali/ingilizce-ogretmenligi</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Müzi̇k Öğretmenli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/egitim-fakultesi/bolumler/guzel-sanatlar-egitimi-bolumu/muzik-egitimi-anabilim-dali/muzik-ogretmenligi</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Hukuk</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/hukuk-fakultesi/bolumler/hukuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Psi̇koloji̇</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/insan-ve-toplum-bilimleri-fakultesi/bolumler/psikoloji, https://www.izu.edu.tr/akademik/fakulteler/insan-ve-toplum-bilimleri-fakultesi/bolumler/psikoloji-ingilizce</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Si̇yaset Bi̇li̇mi̇ Ve Uluslararasi İli̇şki̇ler</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/insan-ve-toplum-bilimleri-fakultesi/bolumler/siyaset-bilimi-ve-uluslararasi-iliskiler-ingilizce</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Sosyoloji̇</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/insan-ve-toplum-bilimleri-fakultesi/bolumler/sosyoloji-yuzde-30-ingilizce</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Tari̇h</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/insan-ve-toplum-bilimleri-fakultesi/bolumler/tarih</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Türk Di̇li̇ Ve Edebi̇yati</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/insan-ve-toplum-bilimleri-fakultesi/programlar/turk-dili-ve-edebiyati</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Görsel İleti̇şi̇m Tasarimi</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/insan-ve-toplum-bilimleri-fakultesi/programlar/gosel-iletisim-tasarimi</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>İslami̇ İli̇mler</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/islami-ilimler-fakultesi/bolumler/islami-ilimler-yuzde-30-arapca, https://www.izu.edu.tr/akademik/fakulteler/islami-ilimler-fakultesi/bolumler/islami-ilimler-arapca</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>İkti̇sat</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/isletme-ve-yonetim-bilimleri-fakultesi/bolumler/iktisat-yuzde-30-ingilizce</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>İslam İkti̇sadi Ve Fi̇nans</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/isletme-ve-yonetim-bilimleri-fakultesi/bolumler/islam-iktisadi-finans, https://www.izu.edu.tr/akademik/fakulteler/isletme-ve-yonetim-bilimleri-fakultesi/bolumler/islam-iktisadi-finans-ingilizce</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>İşletme</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/isletme-ve-yonetim-bilimleri-fakultesi/bolumler/isletme-yuzde-30-ingilizce</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Uluslararasi Ti̇caret Ve Fi̇nansman</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/isletme-ve-yonetim-bilimleri-fakultesi/bolumler/uluslararasi-ticaret-finansman, https://www.izu.edu.tr/akademik/fakulteler/isletme-ve-yonetim-bilimleri-fakultesi/bolumler/uluslararasi-ticaret-finansman-ingilizce</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Bi̇lgi̇sayar Mühendi̇sli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/muhendislik-ve-doga-bilimleri-fakultesi/bolumler/bilgisayar-muhendisligi</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Elektri̇k-Elektroni̇k Mühendi̇sli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/muhendislik-ve-doga-bilimleri-fakultesi/bolumler/elektrik-elektronik-muhendisligi-yuzde-30-ingilizce)</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Endüstri̇ Mühendi̇sli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/muhendislik-ve-doga-bilimleri-fakultesi/bolumler/endustri-muhendisligi-yuzde-30-ingilizce)</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Gida Mühendi̇sli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/muhendislik-ve-doga-bilimleri-fakultesi/bolumler/g%c4%b1da-m%c3%bchendisli%c4%9fi-(-30-i-ngilizce)</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>İç Mi̇marlik Ve Çevre Tasarimi</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/muhendislik-ve-doga-bilimleri-fakultesi/bolumler/ic-mimarlik-ve-cevre-tasarimi</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Mi̇marlik</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/muhendislik-ve-doga-bilimleri-fakultesi/bolumler/mimarlik</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Moleküler Bi̇yoloji̇ Ve Geneti̇k</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/muhendislik-ve-doga-bilimleri-fakultesi/bolumler/molekuler-biyoloji-genetik-ingilizce</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Yazilim Mühendi̇sli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/muhendislik-ve-doga-bilimleri-fakultesi/bolumler/yazilim-muhendisligi-yuzde-30-ingilizce</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Beslenme Ve Di̇yeteti̇k</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/saglik-bilimleri-fakultesi/bolumler/beslenme-ve-diyetetik</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Hemşi̇reli̇k</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/saglik-bilimleri-fakultesi/bolumler/hemsirelik</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Sağlik Yöneti̇mi̇</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/saglik-bilimleri-fakultesi/bolumler/saglik-yonetimi</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Sosyal Hi̇zmet</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/saglik-bilimleri-fakultesi/bolumler/sosyal-hizmet</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Beden Eği̇ti̇mi̇ Ve Spor Öğretmenli̇ği̇</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/sporbilimleri/bolumler/beden-egitimi-ve-spor-ogretmenligi</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>İstanbul Zaim Üniversitesi</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Spor Yöneti̇ci̇li̇ği̇</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>https://www.izu.edu.tr/akademik/fakulteler/sporbilimleri/bolumler/spor-yoneticiligi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
